--- a/Chapter1/C数据类型1.xlsx
+++ b/Chapter1/C数据类型1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xing9\Documents\GitHub\myself\The-C-Programming-Language-2nd\Chapter1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C52D3C-8AA1-4C64-9CF7-567F45885641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BD98F-CB69-4D15-9EC6-D11540AF8CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{60F56680-11CF-4565-957E-BDB22D541466}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Chapter1/C数据类型1.xlsx
+++ b/Chapter1/C数据类型1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xing9\Documents\GitHub\myself\The-C-Programming-Language-2nd\Chapter1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BD98F-CB69-4D15-9EC6-D11540AF8CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0CA56-FC54-4853-9342-79CA377D0F01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{60F56680-11CF-4565-957E-BDB22D541466}"/>
   </bookViews>
@@ -169,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +526,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,7 +666,7 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="10">
         <v>-127</v>
       </c>
       <c r="Q3" s="2">
@@ -755,7 +764,7 @@
       <c r="O5">
         <v>2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="10">
         <v>-32767</v>
       </c>
       <c r="Q5" s="2">
@@ -853,7 +862,7 @@
       <c r="O7">
         <v>2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="10">
         <v>-32767</v>
       </c>
       <c r="Q7" s="2">
@@ -951,7 +960,7 @@
       <c r="O9">
         <v>4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="11">
         <v>-2147483647</v>
       </c>
       <c r="Q9" s="4">
@@ -1049,7 +1058,7 @@
       <c r="O11">
         <v>8</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="4" t="s">
